--- a/Отчет посещения работы.xlsx
+++ b/Отчет посещения работы.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E14:E33" si="1">D16-C16</f>
+        <f t="shared" ref="E16:E33" si="1">D16-C16</f>
         <v>0.25000000000000006</v>
       </c>
       <c r="F16" s="6">
@@ -911,9 +911,15 @@
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C30" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32638888888888895</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,9 +929,15 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C31" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32638888888888895</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,9 +947,15 @@
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C32" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32638888888888895</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,10 +965,7 @@
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Отчет посещения работы.xlsx
+++ b/Отчет посещения работы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Дата</t>
   </si>
@@ -58,12 +58,18 @@
   </si>
   <si>
     <t>Среднее время</t>
+  </si>
+  <si>
+    <t>Суммарно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -116,6 +122,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,9 +427,10 @@
     <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,106 +449,114 @@
       <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43899</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D2" s="4">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="10">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E2" s="10">
         <f>D2-C2</f>
-        <v>0.22222222222222227</v>
-      </c>
-      <c r="F2" s="6">
+        <v>0.2326388888888889</v>
+      </c>
+      <c r="F2" s="11">
         <f>SUM(E2,E3,E4,E5,E6)/5</f>
-        <v>0.23125000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.23125000000000004</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43900</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E6" si="0">D3-C3</f>
         <v>0.2361111111111111</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43901</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>0.22916666666666669</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="11"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>0.5</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.71875</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>0.21875</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43903</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43904</v>
       </c>
@@ -538,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43905</v>
       </c>
@@ -546,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43906</v>
       </c>
@@ -557,18 +583,18 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D9" s="4">
-        <v>0.71527777777777779</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E9" s="4">
         <f>D9-C9</f>
-        <v>0.2361111111111111</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="F9" s="6">
         <f>SUM(E9,E13,E10,E12,E11)/5</f>
-        <v>0.2166666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.21527777777777782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43907</v>
       </c>
@@ -587,7 +613,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43908</v>
       </c>
@@ -606,7 +632,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43909</v>
       </c>
@@ -625,7 +651,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43910</v>
       </c>
@@ -644,7 +670,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43911</v>
       </c>
@@ -653,7 +679,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43912</v>
       </c>
@@ -662,7 +688,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43913</v>
       </c>
@@ -921,6 +947,10 @@
         <f t="shared" si="1"/>
         <v>0.32638888888888895</v>
       </c>
+      <c r="F30" s="9">
+        <f>SUM(E30:E33)/4</f>
+        <v>0.32638888888888895</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -939,6 +969,7 @@
         <f t="shared" si="1"/>
         <v>0.32638888888888895</v>
       </c>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -957,18 +988,39 @@
         <f t="shared" si="1"/>
         <v>0.32638888888888895</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43930</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="C33" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32638888888888895</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="12">
+        <f>SUM(E2:E33)</f>
+        <v>6.9131944444444464</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="F30:F33"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="F16:F20"/>

--- a/Отчет посещения работы.xlsx
+++ b/Отчет посещения работы.xlsx
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -252,12 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,9 +264,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -553,7 +553,7 @@
   <dimension ref="B1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="M17" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,20 +572,20 @@
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="I3" s="19" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="I3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1034,16 +1034,9 @@
       <c r="J19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M19" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
@@ -1068,16 +1061,9 @@
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
@@ -1102,16 +1088,9 @@
       <c r="J21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
@@ -1190,16 +1169,9 @@
       <c r="J24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M24" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
@@ -1217,16 +1189,9 @@
       <c r="J25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
@@ -1244,16 +1209,9 @@
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M26" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
@@ -1278,16 +1236,9 @@
       <c r="J27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M27" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
@@ -1312,16 +1263,9 @@
       <c r="J28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M28" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
@@ -1440,16 +1384,9 @@
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M33" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
@@ -1474,16 +1411,9 @@
       <c r="J34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
@@ -1509,26 +1439,26 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23">
+      <c r="C36" s="24"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18">
         <f>SUM(F13:F35)</f>
         <v>4.3993055555555562</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="I36" s="17" t="s">
+      <c r="F36" s="19"/>
+      <c r="I36" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23">
+      <c r="J36" s="24"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18">
         <f>SUM(M5:M34)</f>
-        <v>6.6805555555555545</v>
-      </c>
-      <c r="M36" s="24"/>
+        <v>3.3472222222222232</v>
+      </c>
+      <c r="M36" s="19"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Отчет посещения работы.xlsx
+++ b/Отчет посещения работы.xlsx
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M7" s="15">
-        <f t="shared" ref="M7:M34" si="0">L7-K7-$C$1</f>
+        <f t="shared" ref="M7:M17" si="0">L7-K7-$C$1</f>
         <v>0.27083333333333337</v>
       </c>
       <c r="O7" s="3"/>
@@ -1014,7 +1014,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="0"/>
+        <f>L18-K18-$C$1</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -1034,9 +1034,16 @@
       <c r="J19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" ref="M19:M20" si="2">L19-K19-$C$1</f>
+        <v>0.33333333333333337</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
@@ -1061,9 +1068,16 @@
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="15"/>
+      <c r="K20" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
@@ -1088,9 +1102,16 @@
       <c r="J21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="15"/>
+      <c r="K21" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" ref="M21:M22" si="3">L21-K21-$C$1</f>
+        <v>0.33333333333333337</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
@@ -1169,9 +1190,16 @@
       <c r="J24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="15"/>
+      <c r="K24" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" ref="M23:M34" si="4">L24-K24-$C$1</f>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
@@ -1189,9 +1217,16 @@
       <c r="J25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="15"/>
+      <c r="K25" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
@@ -1209,9 +1244,16 @@
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="15"/>
+      <c r="K26" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
@@ -1236,9 +1278,16 @@
       <c r="J27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="15"/>
+      <c r="K27" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
@@ -1263,9 +1312,16 @@
       <c r="J28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="15"/>
+      <c r="K28" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
@@ -1344,9 +1400,16 @@
       <c r="J31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="15"/>
+      <c r="K31" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
@@ -1364,9 +1427,16 @@
       <c r="J32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="15"/>
+      <c r="K32" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
@@ -1384,9 +1454,16 @@
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="15"/>
+      <c r="K33" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
@@ -1411,9 +1488,16 @@
       <c r="J34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="15"/>
+      <c r="K34" s="5">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333327</v>
+      </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
@@ -1456,7 +1540,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="18">
         <f>SUM(M5:M34)</f>
-        <v>3.3472222222222232</v>
+        <v>7.3472222222222205</v>
       </c>
       <c r="M36" s="19"/>
     </row>

--- a/Отчет посещения работы.xlsx
+++ b/Отчет посещения работы.xlsx
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" ref="M21:M22" si="3">L21-K21-$C$1</f>
+        <f t="shared" ref="M21" si="3">L21-K21-$C$1</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="M24" s="15">
-        <f t="shared" ref="M23:M34" si="4">L24-K24-$C$1</f>
+        <f t="shared" ref="M24:M34" si="4">L24-K24-$C$1</f>
         <v>0.3333333333333327</v>
       </c>
     </row>
@@ -1400,16 +1400,9 @@
       <c r="J31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="5">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="M31" s="15">
-        <f t="shared" si="4"/>
-        <v>0.3333333333333327</v>
-      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
@@ -1427,16 +1420,9 @@
       <c r="J32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="5">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="M32" s="15">
-        <f t="shared" si="4"/>
-        <v>0.3333333333333327</v>
-      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
@@ -1540,7 +1526,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="18">
         <f>SUM(M5:M34)</f>
-        <v>7.3472222222222205</v>
+        <v>6.6805555555555545</v>
       </c>
       <c r="M36" s="19"/>
     </row>
